--- a/outputs/group_final.xlsx
+++ b/outputs/group_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,23 +446,51 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(0, [0, 2, 3])</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8333333134651184</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>(1, [1, 4])</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.75</v>
+        <v>0.8888888955116272</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.38888931274414</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.55555534362793</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.333333492279053</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.08333301544189</v>
       </c>
     </row>
   </sheetData>
